--- a/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
+++ b/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="CT notifications_2007-2016" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -693,6 +693,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,8 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3743,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71:H72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,23 +3761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4218,23 +4219,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4675,24 +4676,28 @@
         <v>49285</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="26"/>
+      <c r="O22" s="17"/>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -4840,23 +4845,23 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5458,81 +5463,81 @@
       <c r="A41" s="9">
         <v>2016</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="18">
         <f>-0.0088*10 + 0.228</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="18">
         <f>0.0077*10+0.145</f>
         <v>0.22199999999999998</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="18">
         <f>0.0053*10+0.2076</f>
         <v>0.2606</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="18">
         <f>0.0033*10+0.2239</f>
         <v>0.25690000000000002</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="18">
         <f>0.0028*10+0.2315</f>
         <v>0.25950000000000001</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="18">
         <f>-0.0038*10+0.2476</f>
         <v>0.20959999999999998</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="18">
         <f>0.0041*10+0.2124</f>
         <v>0.25340000000000001</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="18">
         <f>0.0035*10+0.1189</f>
         <v>0.15390000000000001</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="18">
         <f>0.0054*10+0.1676</f>
         <v>0.22160000000000002</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="18">
         <f>0.0032*10+0.226</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="18">
         <f>0.0028*10+0.2273</f>
         <v>0.25530000000000003</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="18">
         <f>-0.0011*10+0.2298</f>
         <v>0.21879999999999999</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="18">
         <f>-0.0023*10+0.2341</f>
         <v>0.21110000000000001</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O41" s="19">
         <f>0.0038*10+0.206</f>
         <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="22"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -5721,7 +5726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5736,18 +5741,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6054,18 +6059,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6372,12 +6377,12 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">

--- a/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
+++ b/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT notifications_2007-2016" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -695,6 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,7 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3741,11 +3742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,23 +3762,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4219,23 +4220,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4677,27 +4678,27 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H22" s="26"/>
+      <c r="H22" s="20"/>
       <c r="O22" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -4845,23 +4846,23 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5521,23 +5522,23 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="24"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -5707,6 +5708,19 @@
         <f t="shared" si="15"/>
         <v>53189.153439153437</v>
       </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="21"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C79" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5723,11 +5737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5741,18 +5755,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6059,18 +6073,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6377,12 +6391,12 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">

--- a/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
+++ b/Chlamydia/data/CT notifications_2016_National_Estimate.xlsx
@@ -6556,4 +6556,234 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE67EE9C3B32F24C997F08FEDABFE4D4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1916f590a0ac81e522d2d2b1bccf56e5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2d22f42-674e-4fc3-9806-bf5045c6d197" xmlns:ns3="32705bbd-d6e6-412c-a7e2-7411e947c69b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d3581f47fd99f84d882c8689db76efb4" ns2:_="" ns3:_="">
+    <xsd:import namespace="e2d22f42-674e-4fc3-9806-bf5045c6d197"/>
+    <xsd:import namespace="32705bbd-d6e6-412c-a7e2-7411e947c69b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2d22f42-674e-4fc3-9806-bf5045c6d197" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32705bbd-d6e6-412c-a7e2-7411e947c69b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC923D4-EB41-49A5-9C3A-2CB33ADA9258}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE055BA1-6F4D-4CD5-A5E7-434E771D4F6D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48892507-959D-4506-A28F-4BF294E68ECE}"/>
 </file>